--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi1-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi1-Adam23.xlsx
@@ -540,40 +540,40 @@
         <v>0.489044</v>
       </c>
       <c r="I2">
-        <v>0.9897432161129461</v>
+        <v>0.6630574638774661</v>
       </c>
       <c r="J2">
-        <v>0.989743216112946</v>
+        <v>0.663057463877466</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="N2">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="O2">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="P2">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="Q2">
-        <v>0.006400390519111111</v>
+        <v>0.003715430282666667</v>
       </c>
       <c r="R2">
-        <v>0.05760351467200001</v>
+        <v>0.03343887254400001</v>
       </c>
       <c r="S2">
-        <v>0.005258734906133948</v>
+        <v>0.001270635527162556</v>
       </c>
       <c r="T2">
-        <v>0.005258734906133946</v>
+        <v>0.001270635527162556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.489044</v>
       </c>
       <c r="I3">
-        <v>0.9897432161129461</v>
+        <v>0.6630574638774661</v>
       </c>
       <c r="J3">
-        <v>0.989743216112946</v>
+        <v>0.663057463877466</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>13.206284</v>
       </c>
       <c r="O3">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="P3">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="Q3">
         <v>0.7176059947217778</v>
@@ -632,10 +632,10 @@
         <v>6.458453952496001</v>
       </c>
       <c r="S3">
-        <v>0.5896046002234375</v>
+        <v>0.2454132097841118</v>
       </c>
       <c r="T3">
-        <v>0.5896046002234373</v>
+        <v>0.2454132097841118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.489044</v>
       </c>
       <c r="I4">
-        <v>0.9897432161129461</v>
+        <v>0.6630574638774661</v>
       </c>
       <c r="J4">
-        <v>0.989743216112946</v>
+        <v>0.663057463877466</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="N4">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="O4">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="P4">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="Q4">
-        <v>0.4806071215884445</v>
+        <v>1.217506608507111</v>
       </c>
       <c r="R4">
-        <v>4.325464094296001</v>
+        <v>10.957559476564</v>
       </c>
       <c r="S4">
-        <v>0.3948798809833747</v>
+        <v>0.4163736185661918</v>
       </c>
       <c r="T4">
-        <v>0.3948798809833746</v>
+        <v>0.4163736185661917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.08283833333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.248515</v>
+      </c>
+      <c r="I5">
+        <v>0.3369425361225339</v>
+      </c>
+      <c r="J5">
+        <v>0.3369425361225339</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.001689333333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.005068</v>
-      </c>
-      <c r="I5">
-        <v>0.01025678388705395</v>
-      </c>
-      <c r="J5">
-        <v>0.01025678388705395</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="N5">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="O5">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="P5">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="Q5">
-        <v>6.632773155555556E-05</v>
+        <v>0.001888051293333333</v>
       </c>
       <c r="R5">
-        <v>0.000596949584</v>
+        <v>0.01699246164</v>
       </c>
       <c r="S5">
-        <v>5.449666799774017E-05</v>
+        <v>0.000645692387664101</v>
       </c>
       <c r="T5">
-        <v>5.449666799774016E-05</v>
+        <v>0.0006456923876641009</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.001689333333333333</v>
+        <v>0.08283833333333333</v>
       </c>
       <c r="H6">
-        <v>0.005068</v>
+        <v>0.248515</v>
       </c>
       <c r="I6">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="J6">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>13.206284</v>
       </c>
       <c r="O6">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="P6">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="Q6">
-        <v>0.007436605256888888</v>
+        <v>0.3646621853622222</v>
       </c>
       <c r="R6">
-        <v>0.066929447312</v>
+        <v>3.28195966826</v>
       </c>
       <c r="S6">
-        <v>0.006110117114068225</v>
+        <v>0.1247103815392859</v>
       </c>
       <c r="T6">
-        <v>0.006110117114068224</v>
+        <v>0.1247103815392859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.001689333333333333</v>
+        <v>0.08283833333333333</v>
       </c>
       <c r="H7">
-        <v>0.005068</v>
+        <v>0.248515</v>
       </c>
       <c r="I7">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="J7">
-        <v>0.01025678388705395</v>
+        <v>0.3369425361225339</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="N7">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="O7">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="P7">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="Q7">
-        <v>0.004980567990222223</v>
+        <v>0.6186941355238889</v>
       </c>
       <c r="R7">
-        <v>0.044825111912</v>
+        <v>5.568247219714999</v>
       </c>
       <c r="S7">
-        <v>0.004092170104987983</v>
+        <v>0.2115864621955839</v>
       </c>
       <c r="T7">
-        <v>0.004092170104987981</v>
+        <v>0.2115864621955839</v>
       </c>
     </row>
   </sheetData>
